--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/20/seed3/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.9473</v>
+        <v>-12.8571</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.277699999999999</v>
+        <v>6.3755</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.562499999999999</v>
+        <v>5.499399999999998</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.602600000000001</v>
+        <v>4.582499999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.61339999999999</v>
+        <v>-12.77659999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.90279999999999</v>
+        <v>-14.00289999999998</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -737,10 +737,10 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>7.396599999999999</v>
+        <v>7.676899999999996</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.19219999999999</v>
+        <v>-12.16209999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.65180000000001</v>
+        <v>-11.51280000000001</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.876000000000001</v>
+        <v>5.907700000000001</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.59210000000001</v>
+        <v>-11.51700000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.5084</v>
+        <v>-13.0319</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.0562</v>
+        <v>-12.96</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.63360000000001</v>
+        <v>-11.6865</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.109899999999996</v>
+        <v>9.297499999999998</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.20340000000001</v>
+        <v>-13.3254</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.33199999999999</v>
+        <v>-13.00189999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.60509999999999</v>
+        <v>-13.69109999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.0344</v>
+        <v>-13.1279</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.338999999999994</v>
+        <v>5.796599999999995</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1587,10 +1587,10 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>6.223700000000001</v>
+        <v>6.292199999999998</v>
       </c>
       <c r="C68" t="n">
-        <v>-12.15510000000001</v>
+        <v>-12.12730000000001</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.43650000000001</v>
+        <v>-12.4017</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.310900000000004</v>
+        <v>9.445700000000004</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.437200000000004</v>
+        <v>9.530600000000005</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.824000000000005</v>
+        <v>8.245600000000001</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1791,7 +1791,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.325500000000002</v>
+        <v>9.457699999999999</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.448400000000001</v>
+        <v>5.8697</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.174199999999998</v>
+        <v>5.445600000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>6.319300000000002</v>
+        <v>6.521200000000004</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.69529999999999</v>
+        <v>-14.08999999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.89989999999999</v>
+        <v>-12.91489999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.8477</v>
+        <v>-10.87949999999999</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.91040000000001</v>
+        <v>-12.7614</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.2139</v>
+        <v>-12.1389</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2148,10 +2148,10 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>9.050099999999993</v>
+        <v>9.209399999999993</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.98700000000001</v>
+        <v>-13.07860000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.295</v>
+        <v>8.309099999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.1681</v>
+        <v>-12.8775</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
